--- a/total_report/2563/wiput888.me หวยไทย 1 พฤศจิกายน 2563 (Responses).xlsx
+++ b/total_report/2563/wiput888.me หวยไทย 1 พฤศจิกายน 2563 (Responses).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wiput\Documents\GitHub\rpa-final-project\total_report\2563\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C06117-463D-43AD-A220-11768B209EB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D50AF5-1B4A-426A-9134-5D638995B17D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7590" yWindow="5110" windowWidth="28800" windowHeight="15460" xr2:uid="{12C1C2CB-7DB5-4F30-B22C-8B579EA477C4}"/>
   </bookViews>

--- a/total_report/2563/wiput888.me หวยไทย 1 พฤศจิกายน 2563 (Responses).xlsx
+++ b/total_report/2563/wiput888.me หวยไทย 1 พฤศจิกายน 2563 (Responses).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wiput\Documents\GitHub\rpa-final-project\total_report\2563\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\poksu\Documents\Work\KMITL\RPA\After_midterm\RPA_Final_Project\total_report\2563\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D50AF5-1B4A-426A-9134-5D638995B17D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA52F2D-5139-4AA7-857D-22B4E7FAB5B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="5110" windowWidth="28800" windowHeight="15460" xr2:uid="{12C1C2CB-7DB5-4F30-B22C-8B579EA477C4}"/>
+    <workbookView xWindow="24960" yWindow="1920" windowWidth="17280" windowHeight="9072" xr2:uid="{5D148E54-7D1B-414F-9FB1-E21E89FF5D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,14 +393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DCFB4F-E3E2-4D32-AA46-759F14978C00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CDBF0D-9817-485B-88CA-B3DCBE6D5922}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,12 +408,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>87000</v>
+        <v>522000</v>
       </c>
     </row>
   </sheetData>
